--- a/VAM/Default.xlsx
+++ b/VAM/Default.xlsx
@@ -15,12 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>HelloOutput Text_out</t>
   </si>
   <si>
+    <t>123@mail.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>1234@mail.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Donna</t>
   </si>
 </sst>
 </file>
@@ -165,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,9 +196,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -191,6 +207,28 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -201,16 +239,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,22 +551,24 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41796875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" s="4" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.95" s="3" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -534,18 +578,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" s="3" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
